--- a/2do/ISO/Practica2/Scheduling.xlsx
+++ b/2do/ISO/Practica2/Scheduling.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
   <si>
     <t>Proceso</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>Q=4</t>
+  </si>
+  <si>
+    <t>6&lt;</t>
+  </si>
+  <si>
+    <t>5&lt;</t>
+  </si>
+  <si>
+    <t>2&lt;</t>
+  </si>
+  <si>
+    <t>RR Q=1</t>
+  </si>
+  <si>
+    <t>RR Q=6</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB52"/>
+  <dimension ref="A1:BC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2615,91 +2630,37 @@
       <c r="Y28" s="1">
         <v>20</v>
       </c>
-      <c r="Z28" s="1">
-        <v>21</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>22</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>23</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>24</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>25</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>26</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>27</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>28</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>29</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>32</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>33</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>34</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>36</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>37</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>38</v>
-      </c>
-      <c r="AR28" s="1">
-        <v>39</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>40</v>
-      </c>
-      <c r="AT28" s="1">
-        <v>41</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>42</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>43</v>
-      </c>
-      <c r="AW28" s="1">
-        <v>44</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>45</v>
-      </c>
-      <c r="AY28" s="1">
-        <v>46</v>
-      </c>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1" t="s">
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -2715,11 +2676,17 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2738,34 +2705,36 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -2782,14 +2751,28 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2802,33 +2785,36 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
+      <c r="AA30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2846,17 +2832,27 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -2865,33 +2861,36 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
+      <c r="AA31" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -2912,7 +2911,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2920,43 +2921,56 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1">
+        <v>3</v>
+      </c>
+      <c r="V32" s="1">
+        <v>4</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA32" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +2991,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2988,54 +3004,72 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="AA33" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="5">
+        <v>4</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="5">
+        <v>5</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3049,36 +3083,97 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA34" s="1">
+        <f>AVERAGE(AA29,AA33,AA30,AA31,AA32)</f>
+        <v>6</v>
+      </c>
+      <c r="AB34" s="1">
+        <f>AVERAGE(AB29:AB33)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3154,109 +3249,66 @@
       <c r="Y37" s="1">
         <v>20</v>
       </c>
-      <c r="Z37" s="1">
-        <v>21</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>22</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>23</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>24</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>25</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>26</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>27</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>28</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>29</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>32</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>33</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>34</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>36</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>37</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>38</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>39</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>40</v>
-      </c>
-      <c r="AT37" s="1">
-        <v>41</v>
-      </c>
-      <c r="AU37" s="1">
-        <v>42</v>
-      </c>
-      <c r="AV37" s="1">
-        <v>43</v>
-      </c>
-      <c r="AW37" s="1">
-        <v>44</v>
-      </c>
-      <c r="AX37" s="1">
-        <v>45</v>
-      </c>
-      <c r="AY37" s="1">
-        <v>46</v>
-      </c>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1" t="s">
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB37" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3275,51 +3327,58 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3332,62 +3391,90 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>2</v>
+      </c>
+      <c r="V39" s="1">
+        <v>3</v>
+      </c>
+      <c r="W39" s="1">
+        <v>4</v>
+      </c>
+      <c r="X39" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Z39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3402,60 +3489,78 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>3</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3465,48 +3570,54 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3514,13 +3625,19 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -3528,51 +3645,68 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="AA42" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="5">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="5">
+        <v>4</v>
+      </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="5">
+        <v>5</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3586,36 +3720,157 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AA43" s="1">
+        <f>AVERAGE(AA38:AA42)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AB43" s="1">
+        <f>AVERAGE(AB38:AB42)</f>
+        <v>8.4</v>
+      </c>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3691,109 +3946,66 @@
       <c r="Y46" s="1">
         <v>20</v>
       </c>
-      <c r="Z46" s="1">
-        <v>21</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>22</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>23</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>24</v>
-      </c>
-      <c r="AD46" s="1">
-        <v>25</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>26</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>27</v>
-      </c>
-      <c r="AG46" s="1">
-        <v>28</v>
-      </c>
-      <c r="AH46" s="1">
-        <v>29</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK46" s="1">
-        <v>32</v>
-      </c>
-      <c r="AL46" s="1">
-        <v>33</v>
-      </c>
-      <c r="AM46" s="1">
-        <v>34</v>
-      </c>
-      <c r="AN46" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO46" s="1">
-        <v>36</v>
-      </c>
-      <c r="AP46" s="1">
-        <v>37</v>
-      </c>
-      <c r="AQ46" s="1">
-        <v>38</v>
-      </c>
-      <c r="AR46" s="1">
-        <v>39</v>
-      </c>
-      <c r="AS46" s="1">
-        <v>40</v>
-      </c>
-      <c r="AT46" s="1">
-        <v>41</v>
-      </c>
-      <c r="AU46" s="1">
-        <v>42</v>
-      </c>
-      <c r="AV46" s="1">
-        <v>43</v>
-      </c>
-      <c r="AW46" s="1">
-        <v>44</v>
-      </c>
-      <c r="AX46" s="1">
-        <v>45</v>
-      </c>
-      <c r="AY46" s="1">
-        <v>46</v>
-      </c>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1" t="s">
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3814,124 +4026,149 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1"/>
-      <c r="AV47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="1"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
-    </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>4</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="R48" s="1">
+        <v>5</v>
+      </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="V48" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-    </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="O49" s="1">
+        <v>3</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+      <c r="S49" s="1">
+        <v>3</v>
+      </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -3941,109 +4178,127 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="P50" s="1">
+        <v>2</v>
+      </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="T50" s="1">
+        <v>3</v>
+      </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="W50" s="1">
+        <v>4</v>
+      </c>
+      <c r="X50" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>6</v>
+      </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -4051,15 +4306,21 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
@@ -4067,90 +4328,1341 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2</v>
+      </c>
+      <c r="K52" s="5">
+        <v>3</v>
+      </c>
+      <c r="L52" s="5">
+        <v>4</v>
+      </c>
+      <c r="M52" s="5">
+        <v>2</v>
+      </c>
+      <c r="N52" s="5">
+        <v>3</v>
+      </c>
+      <c r="O52" s="5">
+        <v>4</v>
+      </c>
+      <c r="P52" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>3</v>
+      </c>
+      <c r="S52" s="5">
+        <v>4</v>
+      </c>
+      <c r="T52" s="5">
+        <v>5</v>
+      </c>
+      <c r="U52" s="5">
+        <v>2</v>
+      </c>
+      <c r="V52" s="5">
+        <v>4</v>
+      </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>6</v>
+      </c>
+      <c r="L55" s="1">
+        <v>7</v>
+      </c>
+      <c r="M55" s="1">
+        <v>8</v>
+      </c>
+      <c r="N55" s="1">
+        <v>9</v>
+      </c>
+      <c r="O55" s="1">
+        <v>10</v>
+      </c>
+      <c r="P55" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>12</v>
+      </c>
+      <c r="R55" s="1">
+        <v>13</v>
+      </c>
+      <c r="S55" s="1">
+        <v>14</v>
+      </c>
+      <c r="T55" s="1">
+        <v>15</v>
+      </c>
+      <c r="U55" s="1">
+        <v>16</v>
+      </c>
+      <c r="V55" s="1">
+        <v>17</v>
+      </c>
+      <c r="W55" s="1">
+        <v>18</v>
+      </c>
+      <c r="X55" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>2</v>
+      </c>
+      <c r="U59" s="1">
+        <v>3</v>
+      </c>
+      <c r="V59" s="1">
+        <v>4</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3</v>
+      </c>
+      <c r="H61" s="5">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1">
+        <f>AVERAGE(AA56:AA60)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AB61" s="1">
+        <f>AVERAGE(AB56:AB60)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1">
+        <v>4</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1">
+        <v>6</v>
+      </c>
+      <c r="L64" s="1">
+        <v>7</v>
+      </c>
+      <c r="M64" s="1">
+        <v>8</v>
+      </c>
+      <c r="N64" s="1">
+        <v>9</v>
+      </c>
+      <c r="O64" s="1">
+        <v>10</v>
+      </c>
+      <c r="P64" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>12</v>
+      </c>
+      <c r="R64" s="1">
+        <v>13</v>
+      </c>
+      <c r="S64" s="1">
+        <v>14</v>
+      </c>
+      <c r="T64" s="1">
+        <v>15</v>
+      </c>
+      <c r="U64" s="1">
+        <v>16</v>
+      </c>
+      <c r="V64" s="1">
+        <v>17</v>
+      </c>
+      <c r="W64" s="1">
+        <v>18</v>
+      </c>
+      <c r="X64" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1">
+        <v>6</v>
+      </c>
+      <c r="L73" s="1">
+        <v>7</v>
+      </c>
+      <c r="M73" s="1">
+        <v>8</v>
+      </c>
+      <c r="N73" s="1">
+        <v>9</v>
+      </c>
+      <c r="O73" s="1">
+        <v>10</v>
+      </c>
+      <c r="P73" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4</v>
+      </c>
+      <c r="J82" s="1">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1">
+        <v>6</v>
+      </c>
+      <c r="L82" s="1">
+        <v>7</v>
+      </c>
+      <c r="M82" s="1">
+        <v>8</v>
+      </c>
+      <c r="N82" s="1">
+        <v>9</v>
+      </c>
+      <c r="O82" s="1">
+        <v>10</v>
+      </c>
+      <c r="P82" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2do/ISO/Practica2/Scheduling.xlsx
+++ b/2do/ISO/Practica2/Scheduling.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="47">
   <si>
     <t>Proceso</t>
   </si>
@@ -112,6 +113,60 @@
   <si>
     <t>RR Q=6</t>
   </si>
+  <si>
+    <t>I/O (rec, ins, dur)</t>
+  </si>
+  <si>
+    <t>(R1, 4, 2) (R2, 6, 3) (R1, 8, 3)</t>
+  </si>
+  <si>
+    <t>(R3, 3, 2) (R3, 4, 2)</t>
+  </si>
+  <si>
+    <t>(R1, 4, 1)</t>
+  </si>
+  <si>
+    <t>(R2, 1, 2) (R2, 5, 3)</t>
+  </si>
+  <si>
+    <t>(R1, 2, 3) (R3, 4, 3)</t>
+  </si>
+  <si>
+    <t>Queu</t>
+  </si>
+  <si>
+    <t>Queu R1</t>
+  </si>
+  <si>
+    <t>Queu R2</t>
+  </si>
+  <si>
+    <t>Queu R3</t>
+  </si>
+  <si>
+    <t>I/O FCFS</t>
+  </si>
+  <si>
+    <t>RR Q=3</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Queu P1</t>
+  </si>
+  <si>
+    <t>Queu P2</t>
+  </si>
+  <si>
+    <t>Queu P3</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +231,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -188,6 +278,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5668,4 +5761,1112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="36" width="5.5546875" customWidth="1"/>
+    <col min="37" max="37" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E7" s="7"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1">
+        <v>12</v>
+      </c>
+      <c r="S7" s="1">
+        <v>13</v>
+      </c>
+      <c r="T7" s="1">
+        <v>14</v>
+      </c>
+      <c r="U7" s="1">
+        <v>15</v>
+      </c>
+      <c r="V7" s="1">
+        <v>16</v>
+      </c>
+      <c r="W7" s="1">
+        <v>17</v>
+      </c>
+      <c r="X7" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="9"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E8" s="7"/>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK8" s="9"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="9"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
+        <v>4</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="9"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="9"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="9"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>5</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>4</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>4</v>
+      </c>
+      <c r="V13" s="5">
+        <v>5</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="9"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E18" s="7"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>8</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>11</v>
+      </c>
+      <c r="R18" s="1">
+        <v>12</v>
+      </c>
+      <c r="S18" s="1">
+        <v>13</v>
+      </c>
+      <c r="T18" s="1">
+        <v>14</v>
+      </c>
+      <c r="U18" s="1">
+        <v>15</v>
+      </c>
+      <c r="V18" s="1">
+        <v>16</v>
+      </c>
+      <c r="W18" s="1">
+        <v>17</v>
+      </c>
+      <c r="X18" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>27</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>28</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>29</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>30</v>
+      </c>
+      <c r="AK18" s="9"/>
+    </row>
+    <row r="19" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="3">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>8</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="9"/>
+    </row>
+    <row r="20" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="9"/>
+    </row>
+    <row r="21" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK21" s="9"/>
+    </row>
+    <row r="22" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="9"/>
+    </row>
+    <row r="23" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>4</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="9"/>
+    </row>
+    <row r="24" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>